--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146060.1624920459</v>
+        <v>-148041.0790724721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553579</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13360779.02453448</v>
+        <v>13369228.22944824</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>98.63122914173739</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.6188193269075</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>130.9809232457614</v>
       </c>
       <c r="F4" t="n">
-        <v>55.3089378755685</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>217.1974479953771</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5367147168708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>112.856619986382</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>165.3077787948347</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>88.30524130181574</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.706926911161728</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541063</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>72.61518445926389</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>220.3866928557991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>39.21716692389569</v>
       </c>
       <c r="T16" t="n">
-        <v>88.56658743892552</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.19551414248161</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>102.8424453545852</v>
       </c>
     </row>
     <row r="20">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065116</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002165</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274142</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051992</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262929</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014475</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670633</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>109.9412598317184</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>211.2541671901394</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533798</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700703</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965482</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>40.09370890790557</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437371</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.29031183482</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>22.14609241444643</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571445</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523525</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550457</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298317</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700198</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952705</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080335</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604796</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789442</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4410,22 +4410,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.7960311703076</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="C4" t="n">
-        <v>291.7960311703076</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="D4" t="n">
-        <v>291.7960311703076</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="E4" t="n">
-        <v>291.7960311703076</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>322.5758555962227</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>322.5758555962227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481889</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C8" t="n">
-        <v>631.9064409481889</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D8" t="n">
-        <v>631.9064409481889</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="E8" t="n">
-        <v>631.9064409481889</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="F8" t="n">
-        <v>220.9205361585813</v>
+        <v>714.5699793632655</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>296.6061712614523</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519316</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249202</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988122</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012311</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245974</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931991</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>224.6669506791651</v>
       </c>
     </row>
     <row r="11">
@@ -5042,10 +5042,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.5954956259883</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1276.303449491438</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>1276.303449491438</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240056</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259883</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259883</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402494</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1459.302970634775</v>
       </c>
       <c r="T16" t="n">
-        <v>1409.455071124645</v>
+        <v>1235.517555424281</v>
       </c>
       <c r="U16" t="n">
-        <v>1409.455071124645</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="V16" t="n">
-        <v>1154.770582918758</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W16" t="n">
-        <v>865.3534128817969</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X16" t="n">
-        <v>637.3638619837795</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402494</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,13 +5580,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1446.19352899984</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1246.273518915392</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1246.273518915392</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>957.1448801289506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>702.4603919230638</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W19" t="n">
-        <v>413.0432218861031</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>413.0432218861031</v>
+        <v>981.5095496229246</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>877.6282916890001</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,19 +5838,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5935,22 +5935,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018334</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6145,43 +6145,43 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011509</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155896</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823773</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514047</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.8883477952</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515087</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619115</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643308</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899108</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720781</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525786</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714517</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102004</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047449</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316299</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358152</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675028</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126474</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571585</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636206</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.51382364358</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130761</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526305</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963126</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376139</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
         <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.752784383691</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003078</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6348,7 +6348,7 @@
         <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072647</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>376.4441907482616</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241952</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688056</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799337</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471154</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980058</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585739</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557894</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557894</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473446</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262952</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765105</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706235</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>318.009670603816</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163857</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>491.38882616985</v>
+        <v>326.3571123076822</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388856</v>
+        <v>232.0013381767174</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723143</v>
+        <v>232.0013381767174</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557752</v>
+        <v>232.0013381767174</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569671</v>
+        <v>119.5868817779085</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864677</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933512</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667525</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962071</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286027</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353696</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.64139602165</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056078</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899275</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096199</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167076</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662005</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737489</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818999</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652542</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652542</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6792,7 +6792,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6838,7 +6838,7 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
@@ -6847,16 +6847,16 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103119</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254959</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7078,31 +7078,31 @@
         <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525405</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254962</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7111,19 +7111,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,13 +7394,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>787.3212451295108</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1651.840060782866</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2185.37196545479</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2732.150782513572</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3612.115432843027</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4325.470520289973</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4720.69071287481</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208808</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587483</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333966</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>668.684674853563</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>277.6717966208068</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987300515</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208217</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.4180109385398</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>94.63163663936395</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,10 +23467,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>65.85065954277823</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>158.7036430597076</v>
       </c>
       <c r="T16" t="n">
-        <v>132.9809736194637</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.76883826131119</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.7422079975096</v>
       </c>
     </row>
     <row r="20">
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709162</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338683</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.30556126690944</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642723</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037932</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>75.26883114645162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.13699711010605</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897859</v>
+        <v>71.56447932453261</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1167617.736428484</v>
+        <v>1167617.736428483</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1163342.940521605</v>
+        <v>1177974.229671724</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524994</v>
@@ -26323,13 +26323,13 @@
         <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="G2" t="n">
         <v>273720.3418163962</v>
       </c>
       <c r="H2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
         <v>273720.3418163964</v>
@@ -26338,22 +26338,22 @@
         <v>273720.3418163963</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416893</v>
+        <v>284775.4961416891</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524988</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524988</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524989</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524988</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925899</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284914</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086647</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755745</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26421,16 +26421,16 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26439,25 +26439,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230257</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649903</v>
+        <v>47468.16806649888</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
         <v>51722.33279362281</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26491,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871656</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022285</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559953.1151472807</v>
+        <v>-559953.1151472809</v>
       </c>
       <c r="C6" t="n">
-        <v>30014.76406726368</v>
+        <v>30014.76406726392</v>
       </c>
       <c r="D6" t="n">
-        <v>30014.76406726387</v>
+        <v>30014.76406726372</v>
       </c>
       <c r="E6" t="n">
-        <v>-372730.5661615184</v>
+        <v>-372828.0252874909</v>
       </c>
       <c r="F6" t="n">
-        <v>152429.4703153772</v>
+        <v>152332.0111894053</v>
       </c>
       <c r="G6" t="n">
-        <v>152429.4703153772</v>
+        <v>152332.0111894049</v>
       </c>
       <c r="H6" t="n">
-        <v>152429.4703153775</v>
+        <v>152332.0111894053</v>
       </c>
       <c r="I6" t="n">
-        <v>152429.4703153775</v>
+        <v>152332.0111894053</v>
       </c>
       <c r="J6" t="n">
-        <v>-23993.74887721278</v>
+        <v>-24091.20800318787</v>
       </c>
       <c r="K6" t="n">
-        <v>96516.51424211828</v>
+        <v>96498.02050418743</v>
       </c>
       <c r="L6" t="n">
-        <v>127584.2740379846</v>
+        <v>127584.2740379837</v>
       </c>
       <c r="M6" t="n">
-        <v>3126.165605013884</v>
+        <v>3126.165605014074</v>
       </c>
       <c r="N6" t="n">
         <v>137927.1808388506</v>
       </c>
       <c r="O6" t="n">
-        <v>137927.1808388509</v>
+        <v>137927.1808388507</v>
       </c>
       <c r="P6" t="n">
-        <v>-44245.01238572172</v>
+        <v>93764.57553600488</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,7 +26750,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,7 +26759,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.382405454096</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855759</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108309</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750947</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.902195963301456e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.206412995699793e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855759</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>266.6416626292702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.61911932914609</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>15.45303940080777</v>
       </c>
       <c r="F4" t="n">
-        <v>90.11211014736274</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>189.6785977463344</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7012239391828</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>54.39020111224588</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>83.36203824822869</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>248.4763912259603</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>235.6175314625414</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>143.7141211117695</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787143</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855755</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3382207254436</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444927</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176645</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.327311296119</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041466</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304413</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565488</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927155</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540857</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946968</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647478</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446467</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810461</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562936</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354879</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354093</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386717</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127032</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215725</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622967</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358965</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724822</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813438</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855504</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458532</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710945</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095112</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677448</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361452</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680325</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081156</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990338</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298607</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822378</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557925</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196112</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171307</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263739</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065621</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469063</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235685</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337634</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336887</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892213</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351773</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35665,7 +35665,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
         <v>59.82538970349808</v>
@@ -35726,7 +35726,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>588.096173671273</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415065</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303308</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109045</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221086</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081088</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951443</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109098</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150203</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970351971</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953146</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005164</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560223</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504639</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980104</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.363702241106</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523446</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.090320520922</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686807</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556495</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299096</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799274</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789713</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056024</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206017</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006117998</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187411</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412306</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584681</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084861</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075301</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341611</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491604</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403583</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043229</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37622,10 +37622,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.2123157422593</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
